--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Development\interviewQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889E4ACC-98B6-4E59-AEBE-6AF1A84DF997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21916E71-A6F2-4352-A3C5-EAA774B4595F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Questions</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>to do</t>
+  </si>
+  <si>
+    <t>Find largest and smallest element from array</t>
   </si>
 </sst>
 </file>
@@ -357,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -391,6 +394,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Development\interviewQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21916E71-A6F2-4352-A3C5-EAA774B4595F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB9F71C-EDAB-4274-8B32-37735B84046A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Questions</t>
   </si>
@@ -39,10 +39,25 @@
     <t>WAP to find duplicate elements from array</t>
   </si>
   <si>
-    <t>to do</t>
-  </si>
-  <si>
     <t>Find largest and smallest element from array</t>
+  </si>
+  <si>
+    <t>WAP to find prime number</t>
+  </si>
+  <si>
+    <t>to do in js</t>
+  </si>
+  <si>
+    <t>WAP to find palindrom number</t>
+  </si>
+  <si>
+    <t>WAP to find armstrong number</t>
+  </si>
+  <si>
+    <t>WAP to find factorial of num</t>
+  </si>
+  <si>
+    <t>WAP to find number of duplicate words</t>
   </si>
 </sst>
 </file>
@@ -360,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -390,13 +405,47 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Development\interviewQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB9F71C-EDAB-4274-8B32-37735B84046A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A488C01-BB58-4701-96D5-865386E1019E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Questions</t>
   </si>
@@ -378,7 +378,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,24 +415,15 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
